--- a/ws/artifact/script/api-02.xlsx
+++ b/ws/artifact/script/api-02.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/tutorials/ws/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE7D1BE4-4785-344D-A176-A88515AE98B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{343A172D-FB12-354A-939F-52007B7DB064}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="460" windowWidth="37020" windowHeight="21140" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="980" yWindow="940" windowWidth="37020" windowHeight="21140" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="683">
   <si>
     <t>description</t>
   </si>
@@ -2148,9 +2148,6 @@
     <t>los angeles</t>
   </si>
   <si>
-    <t>test automation</t>
-  </si>
-  <si>
     <t>description=${description}&amp;location=${location}</t>
   </si>
   <si>
@@ -2160,21 +2157,6 @@
     <t>${jobs}</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>there should be 2 matches</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>"Software Solutions Engineer/Lead/Architect-Java","Media Software Engineer"</t>
-  </si>
-  <si>
-    <t>[JSON(${jobs}) =&gt; extract(title) list]</t>
-  </si>
-  <si>
     <t>extract job title and ensure expected order</t>
   </si>
   <si>
@@ -2185,18 +2167,51 @@
   </si>
   <si>
     <t>[JSON(${jobs}) =&gt; extract(description[1])]</t>
+  </si>
+  <si>
+    <t>terminate(programName)</t>
+  </si>
+  <si>
+    <t>testing</t>
+  </si>
+  <si>
+    <t>there should be multiple matches</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>nexial.textDelim</t>
+  </si>
+  <si>
+    <t>|</t>
+  </si>
+  <si>
+    <t>[JSON(${jobs}) =&gt; extract(title) list distinct ascending replace("|)]</t>
+  </si>
+  <si>
+    <t>Media Software Engineer|Senior Software Engineer|Senior Web Software Engineer|Software Engineer, Backend|Software Engineer, Frontend |Software Engineer, Full Stack</t>
   </si>
   <si>
     <t>[JSON(${jobs}) =&gt; 
  remove(id) 
  remove(created_at) 
  remove(company_logo) 
- remove([description=REGEX:.+nsurance.+]) 
+ remove([location=REGEX:.*Santa Monica.*]) 
  count(title)
 ]</t>
   </si>
   <si>
-    <t>terminate(programName)</t>
+    <t>[JSON(${jobs}) =&gt; extract(id) count]</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>set it back to default</t>
+  </si>
+  <si>
+    <t>set it to pipe for the next 2 steps</t>
   </si>
 </sst>
 </file>
@@ -3429,7 +3444,7 @@
         <v>439</v>
       </c>
       <c r="J6" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
       <c r="K6" t="s">
         <v>343</v>
@@ -4951,9 +4966,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O313"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10558,11 +10573,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{486E6527-8563-2540-BCCA-973C11A488D3}">
-  <dimension ref="A1:O312"/>
+  <dimension ref="A1:O313"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="89" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="89" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10571,7 +10586,7 @@
     <col min="2" max="2" width="36.5" style="9" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="9.6640625" style="14" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="44.1640625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="47.33203125" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="72" style="10" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="78.33203125" style="10" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="9" width="20" style="10" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="20" style="23" customWidth="1" collapsed="1"/>
@@ -10932,7 +10947,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>663</v>
+        <v>671</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
@@ -10984,7 +10999,7 @@
         <v>659</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>553</v>
@@ -11010,7 +11025,7 @@
         <v>61</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>593</v>
@@ -11037,7 +11052,7 @@
         <v>35</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
@@ -11053,23 +11068,21 @@
     <row r="18" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="27"/>
       <c r="B18" s="5" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>666</v>
+        <v>673</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>667</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>669</v>
-      </c>
+        <v>679</v>
+      </c>
+      <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
       <c r="J18" s="22"/>
@@ -11082,23 +11095,21 @@
     <row r="19" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="27"/>
       <c r="B19" s="5" t="s">
-        <v>672</v>
+        <v>682</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>670</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>568</v>
-      </c>
+        <v>675</v>
+      </c>
+      <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
       <c r="J19" s="22"/>
@@ -11111,19 +11122,23 @@
     <row r="20" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="27"/>
       <c r="B20" s="5" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>673</v>
-      </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
+        <v>676</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>677</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>568</v>
+      </c>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="J20" s="22"/>
@@ -11136,7 +11151,7 @@
     <row r="21" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="27"/>
       <c r="B21" s="5" t="s">
-        <v>606</v>
+        <v>668</v>
       </c>
       <c r="C21" s="13" t="s">
         <v>13</v>
@@ -11145,7 +11160,7 @@
         <v>68</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
@@ -11158,23 +11173,21 @@
       <c r="N21" s="15"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="27"/>
       <c r="B22" s="5" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="E22" s="22" t="s">
-        <v>676</v>
-      </c>
-      <c r="F22" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="7" t="s">
         <v>669</v>
       </c>
+      <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
@@ -11185,13 +11198,23 @@
       <c r="N22" s="15"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A23" s="27"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
+      <c r="B23" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>678</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>673</v>
+      </c>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
@@ -11203,12 +11226,24 @@
       <c r="O23" s="3"/>
     </row>
     <row r="24" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="27"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
+      <c r="A24" s="27" t="s">
+        <v>660</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>681</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>674</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>680</v>
+      </c>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
@@ -11476,7 +11511,7 @@
     </row>
     <row r="40" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="27"/>
-      <c r="B40" s="8"/>
+      <c r="B40" s="5"/>
       <c r="C40" s="13"/>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
@@ -11493,7 +11528,7 @@
     </row>
     <row r="41" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="27"/>
-      <c r="B41" s="5"/>
+      <c r="B41" s="8"/>
       <c r="C41" s="13"/>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
@@ -16115,6 +16150,23 @@
       <c r="N312" s="15"/>
       <c r="O312" s="3"/>
     </row>
+    <row r="313" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A313" s="27"/>
+      <c r="B313" s="5"/>
+      <c r="C313" s="13"/>
+      <c r="D313" s="7"/>
+      <c r="E313" s="7"/>
+      <c r="F313" s="7"/>
+      <c r="G313" s="7"/>
+      <c r="H313" s="7"/>
+      <c r="I313" s="7"/>
+      <c r="J313" s="22"/>
+      <c r="K313" s="3"/>
+      <c r="L313" s="15"/>
+      <c r="M313" s="12"/>
+      <c r="N313" s="15"/>
+      <c r="O313" s="3"/>
+    </row>
   </sheetData>
   <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
   <mergeCells count="4">
@@ -16123,7 +16175,7 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="L2:O2"/>
   </mergeCells>
-  <conditionalFormatting sqref="N1 N313:N1048576 N3:N112">
+  <conditionalFormatting sqref="N1 N314:N1048576 N3:N113">
     <cfRule type="beginsWith" dxfId="11" priority="4" stopIfTrue="1" operator="beginsWith" text="WARN">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
@@ -16134,22 +16186,22 @@
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N113:N312">
+  <conditionalFormatting sqref="N114:N313">
     <cfRule type="beginsWith" dxfId="8" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
-      <formula>LEFT(N113,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N114,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="7" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
-      <formula>LEFT(N113,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N114,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="6" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
-      <formula>LEFT(N113,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N114,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D312" xr:uid="{206269E9-86F4-FA46-9930-403ACE8BDF3D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D313" xr:uid="{206269E9-86F4-FA46-9930-403ACE8BDF3D}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C312" xr:uid="{616A2E16-F619-1244-83F4-FE8D53932B17}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C313" xr:uid="{616A2E16-F619-1244-83F4-FE8D53932B17}">
       <formula1>target</formula1>
     </dataValidation>
   </dataValidations>
